--- a/data/MARINe_meta.xlsx
+++ b/data/MARINe_meta.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13840" windowHeight="17040" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="MBNMS" sheetId="3" r:id="rId1"/>
@@ -1239,7 +1239,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1248,6 +1248,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
@@ -1275,11 +1278,14 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="12">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1565,7 +1571,7 @@
   <dimension ref="A1:CU70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
